--- a/biology/Botanique/Agave_univittata/Agave_univittata.xlsx
+++ b/biology/Botanique/Agave_univittata/Agave_univittata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Agave univittata, la « plante centenaire à crête épineuse » ou « agave à crête épineuse »,r est une espèce de plante de la famille des Asparagaceae. Il originaire de zones côtières du sud du Texas et du nord-est du Mexique, à des altitudes inférieures à 100 m. Il a été souvent dénommé Agave lophantha[2] par des botanistes dont Howard Scott Gentry[3], mais le nom Agave univittata est plus ancien et donc plus conforme aux règles nomenclaturales de la botanique[4].
-Agave univittata a des feuilles épaisses et charnues, raides et ondulées le long des marges. Il présente des épines pointues et proéminentes sur les bords et les extrémités des feuilles. La tige florale mesure jusqu'à 5 m de haut et porte des fleurs blanc verdâtre à vert jaunâtre[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Agave univittata, la « plante centenaire à crête épineuse » ou « agave à crête épineuse »,r est une espèce de plante de la famille des Asparagaceae. Il originaire de zones côtières du sud du Texas et du nord-est du Mexique, à des altitudes inférieures à 100 m. Il a été souvent dénommé Agave lophantha par des botanistes dont Howard Scott Gentry, mais le nom Agave univittata est plus ancien et donc plus conforme aux règles nomenclaturales de la botanique.
+Agave univittata a des feuilles épaisses et charnues, raides et ondulées le long des marges. Il présente des épines pointues et proéminentes sur les bords et les extrémités des feuilles. La tige florale mesure jusqu'à 5 m de haut et porte des fleurs blanc verdâtre à vert jaunâtre,.
 Liste des synonymes
 Agave caerulescens Salm-Dyck ex Jacobi
 Agave heteracantha Zucc.
@@ -531,10 +543,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agave vittata est cultivé comme plante ornementale et, au Royaume-Uni, le cultivar 'Quadricolor' a remporté le Award of Garden Merit de la Royal Horticultural Society[5],[6].
-Étant donné que l'espèce est répandue et que la population globale est stable, elle n'est pas considérée par l'UICN comme menacée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agave vittata est cultivé comme plante ornementale et, au Royaume-Uni, le cultivar 'Quadricolor' a remporté le Award of Garden Merit de la Royal Horticultural Society,.
+Étant donné que l'espèce est répandue et que la population globale est stable, elle n'est pas considérée par l'UICN comme menacée.
 </t>
         </is>
       </c>
